--- a/Project1/Compare_MD_US_Cancer_Deaths_TopTen_by_Rate.xlsx
+++ b/Project1/Compare_MD_US_Cancer_Deaths_TopTen_by_Rate.xlsx
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
